--- a/Z_tables/Hard_Soft_results.xlsx
+++ b/Z_tables/Hard_Soft_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icekler/Local_Github/latex-itt/Z_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FBFB6D-7947-FA48-BE13-E39BAEC94A24}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2195289-FD00-EE42-8688-2C40294CE13A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19220" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{02BE5B71-1A16-104D-9835-4A7A57862BBF}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Chinese" sheetId="1" r:id="rId1"/>
     <sheet name="English" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="143">
   <si>
     <t>Price range</t>
   </si>
@@ -455,6 +455,12 @@
   </si>
   <si>
     <t xml:space="preserve">Determination of hard and soft attributes for Chinese keywords. </t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Stdv</t>
   </si>
 </sst>
 </file>
@@ -558,7 +564,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -578,6 +584,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5910,7 +5918,7 @@
   <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6152,6 +6160,21 @@
       <c r="C12" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="J12" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="K12" s="9">
+        <f xml:space="preserve"> AVERAGE(K4:K11)</f>
+        <v>0.68437499999999996</v>
+      </c>
+      <c r="L12" s="9">
+        <f t="shared" ref="L12:M12" si="0" xml:space="preserve"> AVERAGE(L4:L11)</f>
+        <v>0.21874999999999997</v>
+      </c>
+      <c r="M12" s="9">
+        <f t="shared" si="0"/>
+        <v>9.6874999999999989E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
@@ -6161,6 +6184,21 @@
       <c r="C13" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="J13" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" s="3">
+        <f xml:space="preserve"> STDEV(K4:K11)</f>
+        <v>9.994418084968397E-2</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" ref="L13:M13" si="1" xml:space="preserve"> STDEV(L4:L11)</f>
+        <v>4.3813729094233464E-2</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.11135328271509813</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
@@ -6436,7 +6474,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J32" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="K32" s="9">
+        <f xml:space="preserve"> AVERAGE(K24:K31)</f>
+        <v>0.53125</v>
+      </c>
+      <c r="L32" s="9">
+        <f t="shared" ref="L32:M32" si="2" xml:space="preserve"> AVERAGE(L24:L31)</f>
+        <v>0.46875</v>
+      </c>
+      <c r="M32" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J33" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="K33" s="3">
+        <f xml:space="preserve"> STDEV(K24:K31)</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <f t="shared" ref="L33:M33" si="3" xml:space="preserve"> STDEV(L24:L31)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -6453,7 +6525,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -6470,7 +6542,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -6487,7 +6559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -6504,7 +6576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -6521,7 +6593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -6538,7 +6610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -6555,7 +6627,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -6572,7 +6644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -6589,7 +6661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -6606,7 +6678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -6623,7 +6695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -6640,7 +6712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -6657,7 +6729,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -6674,7 +6746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -6927,7 +6999,7 @@
   <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F38" sqref="F38:I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7185,6 +7257,21 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
+      <c r="F12" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="9">
+        <f xml:space="preserve"> AVERAGE(G4:G11)</f>
+        <v>0.30937500000000001</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" ref="H12:I12" si="0" xml:space="preserve"> AVERAGE(H4:H11)</f>
+        <v>0.56562499999999993</v>
+      </c>
+      <c r="I12" s="9">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
@@ -7196,6 +7283,21 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
+      <c r="F13" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="3">
+        <f xml:space="preserve"> STDEV(G4:G11)</f>
+        <v>6.5380070139367169E-2</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" ref="H13:I13" si="1" xml:space="preserve"> STDEV(H4:H11)</f>
+        <v>5.815235531404922E-2</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="1"/>
+        <v>3.7796447300922791E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
@@ -7590,6 +7692,21 @@
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
+      <c r="F38" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="G38" s="9">
+        <f xml:space="preserve"> AVERAGE(G30:G37)</f>
+        <v>0.18541666666666665</v>
+      </c>
+      <c r="H38" s="9">
+        <f t="shared" ref="H38" si="2" xml:space="preserve"> AVERAGE(H30:H37)</f>
+        <v>0.52465277777777775</v>
+      </c>
+      <c r="I38" s="9">
+        <f t="shared" ref="I38" si="3" xml:space="preserve"> AVERAGE(I30:I37)</f>
+        <v>0.28993055555555547</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
@@ -7601,6 +7718,21 @@
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
+      <c r="F39" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G39" s="3">
+        <f xml:space="preserve"> STDEV(G30:G37)</f>
+        <v>9.3408770534133406E-2</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" ref="H39:I39" si="4" xml:space="preserve"> STDEV(H30:H37)</f>
+        <v>0.13311355481102133</v>
+      </c>
+      <c r="I39" s="3">
+        <f t="shared" si="4"/>
+        <v>0.13414055827339372</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
